--- a/CS/courses/CS-463/assignments/5/463-2025b-hw5-warn.xlsx
+++ b/CS/courses/CS-463/assignments/5/463-2025b-hw5-warn.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="89">
   <si>
     <t xml:space="preserve">463 Fall 2025 HW5</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">IR ← M[MAR]</t>
   </si>
   <si>
-    <t xml:space="preserve">1117</t>
+    <t xml:space="preserve">1111</t>
   </si>
   <si>
     <t xml:space="preserve">PC ← PC + 1</t>
@@ -103,88 +103,154 @@
     <t xml:space="preserve">MAR ← IR[11-0]</t>
   </si>
   <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(decode IR[15-12])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fetch operand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR ← M[MAR]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">execute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC ← MBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORE Next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBR ← AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M[MAR] ← MBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`0117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAD Num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD Num2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC ← AC + MBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STORE Ctr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`0014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAD Sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBT Num1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
     <t xml:space="preserve">117</t>
   </si>
   <si>
-    <t xml:space="preserve">(decode IR[15-12])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fetch operand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBR ← M[MAR]</t>
-  </si>
-  <si>
     <t xml:space="preserve">000A</t>
   </si>
   <si>
-    <t xml:space="preserve">execute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AC ← MBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STORE Next</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">001A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBR ← AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M[MAR] ← MBR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAD Num</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADD Num2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STORE Ctr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAD Sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBT Num1</t>
+    <t xml:space="preserve">AC ← AC - MBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006</t>
   </si>
   <si>
     <t xml:space="preserve">8.</t>
@@ -193,13 +259,34 @@
     <t xml:space="preserve">STORE Sum</t>
   </si>
   <si>
+    <t xml:space="preserve">2114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">9.</t>
   </si>
   <si>
     <t xml:space="preserve">JUMP Loop</t>
   </si>
   <si>
+    <t xml:space="preserve">9105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC ← MAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Because ADD x grabs the address x, then the data at address x, then adds it to the AC, ADDI x first grabs the address x, then grabs the address at address x, then grabs the address at the address at x. So, add X only involves looking in one place, while ADDI involves looking in two places. In other words, with ADD x we go to A to B, in ADDI x we go A to B to C.</t>
   </si>
 </sst>
 </file>
@@ -211,7 +298,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -238,6 +325,11 @@
       <name val="Lucida Sans Typewriter"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Lucida Sans Typewriter"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -288,7 +380,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,8 +417,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -578,10 +686,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,7 +726,7 @@
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <f aca="false">SUM(A7:A1011)</f>
+        <f aca="false">SUM(A7:A1009)</f>
         <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -785,10 +893,10 @@
         <v>24</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>31</v>
@@ -810,10 +918,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>18</v>
@@ -825,7 +933,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H17" s="6" t="s">
         <v>24</v>
@@ -846,7 +954,7 @@
         <v>24</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>24</v>
@@ -864,10 +972,10 @@
         <v>23</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>24</v>
@@ -887,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>31</v>
@@ -908,19 +1016,19 @@
         <v>28</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -931,40 +1039,40 @@
         <v>30</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="J22" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="I23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,28 +1080,28 @@
         <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="I24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K24" s="3" t="n">
         <v>112</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,58 +1116,164 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="4"/>
+      <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="H27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="4"/>
+      <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="G28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
+      <c r="D31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
+      <c r="D32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F33" s="5"/>
@@ -1073,58 +1287,164 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
+      <c r="J34" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
+      <c r="D39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
+      <c r="D40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F41" s="5"/>
@@ -1138,65 +1458,191 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
+      <c r="D45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
+      <c r="D47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="D49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K49" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F50" s="5"/>
@@ -1210,58 +1656,164 @@
         <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
+      <c r="D56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="D57" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F58" s="5"/>
@@ -1275,58 +1827,164 @@
         <v>7</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="D62" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
+      <c r="D64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="D65" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F66" s="5"/>
@@ -1340,65 +1998,191 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
+      <c r="D70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="D72" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
+      <c r="D74" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K74" s="3" t="n">
+        <v>114</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F75" s="5"/>
@@ -1412,58 +2196,164 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
+        <v>83</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
+      <c r="D79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
+      <c r="D81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="D82" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F83" s="5"/>
@@ -1473,6 +2363,15 @@
       <c r="J83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
@@ -1487,12 +2386,6 @@
       <c r="J85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
@@ -1548,27 +2441,31 @@
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="21">
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="D79:D80"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
